--- a/data/test_user_data.xlsx
+++ b/data/test_user_data.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestUserLogin" sheetId="1" r:id="rId1"/>
     <sheet name="TestUserReg" sheetId="2" r:id="rId2"/>
     <sheet name="TestLogout" sheetId="3" r:id="rId3"/>
+    <sheet name="TestAvaliable" sheetId="4" r:id="rId4"/>
+    <sheet name="TestUpdata" sheetId="5" r:id="rId5"/>
+    <sheet name="Test_Sui_city" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>case_name</t>
   </si>
@@ -82,6 +85,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
       <t>{"name": "</t>
     </r>
     <r>
@@ -166,6 +175,215 @@
   </si>
   <si>
     <t>退出登录成功</t>
+  </si>
+  <si>
+    <t>test_user_avaliable</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/getUserList/</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>test_failure_avaliable</t>
+  </si>
+  <si>
+    <t>失败，尚未登录</t>
+  </si>
+  <si>
+    <t>test_user_updata</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/updateUser/?token=710e46e062a111ea87c400163e06e52c</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "password": "123456"
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"code": "100000", "data": {"name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "passwod": "e10adc3949ba59abbe56e057f20f883e"}, "msg": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>test_failure_updata</t>
+  </si>
+  <si>
+    <t>http://115.28.108.130:5000/api/user/updateUser/?token=****</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{
+    "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李八</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "password": "123456"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  "code": "100001",
+  "msg": "更新用户信息失败",
+  "data": {
+    "name": "李八",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+  }
+}</t>
+  </si>
+  <si>
+    <t>test_sui_data1</t>
+  </si>
+  <si>
+    <t>http://10.7.24.178:15000/api/yg/home/page</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT password FROM `user` WHERE name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜喆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>test_sui_data2</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT password FROM `user` WHERE name = '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>test_sui_data3</t>
   </si>
 </sst>
 </file>
@@ -227,6 +445,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -235,6 +474,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -244,7 +512,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,39 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,58 +574,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF404040"/>
       <name val="宋体"/>
@@ -377,187 +595,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +856,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -653,22 +880,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,17 +904,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,10 +949,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,7 +961,7 @@
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,112 +970,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,6 +1535,7 @@
     <hyperlink ref="B3" r:id="rId2" display="http://115.28.108.130:5000/api/user/login/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1326,7 +1545,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1407,6 +1626,7 @@
     <hyperlink ref="B3" r:id="rId1" display="http://115.28.108.130:5000/api/user/reg/" tooltip="http://115.28.108.130:5000/api/user/reg/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1417,7 +1637,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1471,6 +1691,304 @@
     <hyperlink ref="B2" r:id="rId1" display="http://115.28.108.130:5000/api/user/logout/" tooltip="http://115.28.108.130:5000/api/user/logout/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="35.25" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="104.25" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="104.25" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://115.28.108.130:5000/api/user/getUserList/" tooltip="http://115.28.108.130:5000/api/user/getUserList/"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://115.28.108.130:5000/api/user/getUserList/" tooltip="http://115.28.108.130:5000/api/user/getUserList/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="35.25" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="242.25" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="338.25" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://115.28.108.130:5000/api/user/updateUser/?token=710e46e062a111ea87c400163e06e52c" tooltip="http://115.28.108.130:5000/api/user/updateUser/?token=710e46e062a111ea87c400163e06e52c"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://115.28.108.130:5000/api/user/updateUser/?token=****" tooltip="http://115.28.108.130:5000/api/user/updateUser/?token=****"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="35.25" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="121.5" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="121.5" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://10.7.24.178:15000/api/yg/home/page" tooltip="http://10.7.24.178:15000/api/yg/home/page"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://10.7.24.178:15000/api/yg/home/page" tooltip="http://10.7.24.178:15000/api/yg/home/page"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://10.7.24.178:15000/api/yg/home/page" tooltip="http://10.7.24.178:15000/api/yg/home/page"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>